--- a/resource/result.xlsx
+++ b/resource/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>学校</t>
   </si>
@@ -31,7 +31,7 @@
     <t>热度排名</t>
   </si>
   <si>
-    <t>入取成功预测值（1-9）</t>
+    <t>录取成功预测值（1-9）</t>
   </si>
   <si>
     <t xml:space="preserve"> 最高分</t>
@@ -49,130 +49,1435 @@
     <t>年份</t>
   </si>
   <si>
-    <t>广州铁路职业技术学院</t>
+    <t>北京第二外国语学院中瑞酒店管理学院</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>语言类</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>二本</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>青岛理工大学琴岛学院</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>理工类</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>黑龙江中医药大学</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>医药类</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>454</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>西安科技大学高新学院</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>三本</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>长春财经学院</t>
+  </si>
+  <si>
+    <t>吉林</t>
+  </si>
+  <si>
+    <t>财经类</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>上海建桥学院</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>629</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>闽南理工学院</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>广西科技大学鹿山学院</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>蚌埠学院</t>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>452</t>
+  </si>
+  <si>
+    <t>大连财经学院</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>596</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>武汉设计工程学院</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>综合类</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>广东白云学院</t>
   </si>
   <si>
     <t>广东</t>
   </si>
   <si>
-    <t>理工类</t>
-  </si>
-  <si>
-    <t>288</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>专科</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>上海东海职业技术学院</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>综合类</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>1263</t>
+    <t>203</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>云南大学滇池学院</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>湖南医药学院</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>商丘师范学院</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>师范类</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>天津商业大学宝德学院</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>贵州大学科技学院</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>883</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>黑龙江工商学院</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>天津外国语大学滨海外事学院</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>苏州科技大学天平学院</t>
+  </si>
+  <si>
+    <t>江苏</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>长春建筑学院</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>吉林华桥外国语学院</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>841</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>辽宁师范大学海华学院</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>1467</t>
+  </si>
+  <si>
+    <t>湖州师范学院求真学院</t>
+  </si>
+  <si>
+    <t>浙江</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>天津理工大学中环信息学院</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>福州理工学院</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>成都东软学院</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>云南师范大学文理学院</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>长春工业大学人文信息学院</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>438</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>广西师范学院</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>中国地质大学长城学院</t>
+  </si>
+  <si>
+    <t>河北</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>湖北工业大学工程技术学院</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>云南大学旅游文化学院</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>扬州大学广陵学院</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>1451</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>泉州信息工程学院</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>2316</t>
+  </si>
+  <si>
+    <t>青岛工学院</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>西北工业大学明德学院</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>温州大学瓯江学院</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>广东财经大学华商学院</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>汉口学院</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>西安培华学院</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>武汉大学珞珈学院</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>郑州科技学院</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>中北大学信息商务学院</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>吉林建筑大学城建学院</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>西华师范大学</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>474</t>
+  </si>
+  <si>
+    <t>云南师范大学商学院</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>西安思源学院</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>文华学院</t>
+  </si>
+  <si>
+    <t>157</t>
   </si>
   <si>
     <t>398</t>
   </si>
   <si>
-    <t>358</t>
+    <t>517</t>
+  </si>
+  <si>
+    <t>贵州民族大学人文科技学院</t>
+  </si>
+  <si>
+    <t>民族类</t>
+  </si>
+  <si>
+    <t>1644</t>
+  </si>
+  <si>
+    <t>桂林理工大学博文管理学院</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>桂林电子科技大学信息科技学院</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>黑龙江外国语学院</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>788</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>辽宁对外经贸学院</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>山东中医药高等专科学校</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>一本</t>
+  </si>
+  <si>
+    <t>黔南民族师范学院</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>西安欧亚学院</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>478</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>福建农林大学东方学院</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>辽宁中医药大学杏林学院</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>常州大学怀德学院</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>广东海洋大学寸金学院</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>1169</t>
+  </si>
+  <si>
+    <t>青岛农业大学海都学院</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>绍兴文理学院元培学院</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>上海杉达学院</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>472</t>
+  </si>
+  <si>
+    <t>平顶山学院</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>长春大学旅游学院</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>1585</t>
+  </si>
+  <si>
+    <t>武昌理工学院</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>青岛滨海学院</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>宁夏理工学院</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>重庆邮电大学移通学院</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>三峡大学科技学院</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>429</t>
+  </si>
+  <si>
+    <t>安阳师范学院</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>昆明医科大学海源学院</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>郑州成功财经学院</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>重庆邮电大学</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>武汉东湖学院</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>长春理工大学光电信息学院</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>长江大学文理学院</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>宁波大红鹰学院</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>哈尔滨学院</t>
+  </si>
+  <si>
+    <t>重庆人文科技学院</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>福建师范大学协和学院</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>贵州师范大学求是学院</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>重庆大学城市科技学院</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>开封大学</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>湖北经济学院法商学院</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>427</t>
+  </si>
+  <si>
+    <t>广东技术师范学院天河学院</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>咸阳师范学院</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>齐鲁理工学院</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>831</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>长春光华学院</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>贵州财经大学商务学院</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>1170</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>北京电影学院现代创意媒体学院</t>
+  </si>
+  <si>
+    <t>艺术类</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>黑龙江东方学院</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>广州工商学院</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>广西大学行健文理学院</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>福州外语外贸学院</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>北京交通大学海滨学院</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>嘉兴学院南湖学院</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>四川工商学院</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>北海艺术设计学院</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2386</t>
+  </si>
+  <si>
+    <t>泰山学院</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>聊城大学东昌学院</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>湖北商贸学院</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>福建师范大学闽南科技学院</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>温州商学院</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>上海外国语大学贤达经济人文学院</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>南京中医药大学翰林学院</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>南京邮电大学通达学院</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>992</t>
   </si>
   <si>
     <t>383</t>
   </si>
   <si>
-    <t>海南软件职业技术学院</t>
+    <t>460</t>
+  </si>
+  <si>
+    <t>海南政法职业学院</t>
   </si>
   <si>
     <t>海南</t>
   </si>
   <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>九江职业技术学院</t>
-  </si>
-  <si>
-    <t>江西</t>
-  </si>
-  <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>山东传媒职业学院</t>
-  </si>
-  <si>
-    <t>山东</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>1490</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>360</t>
+    <t>政法类</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>三亚学院</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>451</t>
+  </si>
+  <si>
+    <t>宁夏大学新华学院</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>北京邮电大学世纪学院</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>499</t>
   </si>
 </sst>
 </file>
@@ -508,7 +1813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,62 +1879,62 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -647,48 +1952,48 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -699,31 +2004,5526 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>160</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>161</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" t="s">
+        <v>176</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>203</v>
+      </c>
+      <c r="E39" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>216</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>99</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>224</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s">
+        <v>227</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" t="s">
+        <v>243</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>245</v>
+      </c>
+      <c r="E51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I51" t="s">
+        <v>192</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" t="s">
+        <v>249</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" t="s">
+        <v>250</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" t="s">
+        <v>251</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" t="s">
+        <v>254</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>248</v>
+      </c>
+      <c r="E55" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" t="s">
+        <v>251</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" t="s">
+        <v>188</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>177</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" t="s">
+        <v>261</v>
+      </c>
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>126</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>269</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>271</v>
+      </c>
+      <c r="E63" t="s">
+        <v>272</v>
+      </c>
+      <c r="F63" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63" t="s">
+        <v>92</v>
+      </c>
+      <c r="I63" t="s">
+        <v>274</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>276</v>
+      </c>
+      <c r="E64" t="s">
+        <v>277</v>
+      </c>
+      <c r="F64" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" t="s">
+        <v>278</v>
+      </c>
+      <c r="H64" t="s">
+        <v>279</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" t="s">
+        <v>198</v>
+      </c>
+      <c r="I65" t="s">
+        <v>283</v>
+      </c>
+      <c r="J65" t="s">
+        <v>284</v>
+      </c>
+      <c r="K65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66" t="s">
+        <v>251</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" t="s">
+        <v>291</v>
+      </c>
+      <c r="F68" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" t="s">
+        <v>292</v>
+      </c>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s">
+        <v>161</v>
+      </c>
+      <c r="J68" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" t="s">
+        <v>246</v>
+      </c>
+      <c r="F69" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>293</v>
+      </c>
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69" t="s">
+        <v>227</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>294</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J70" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>296</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" t="s">
+        <v>300</v>
+      </c>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s">
+        <v>301</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>302</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>303</v>
+      </c>
+      <c r="E73" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" t="s">
+        <v>305</v>
+      </c>
+      <c r="I73" t="s">
+        <v>216</v>
+      </c>
+      <c r="J73" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" t="s">
+        <v>308</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>177</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>310</v>
+      </c>
+      <c r="E75" t="s">
+        <v>311</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" t="s">
+        <v>147</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" t="s">
+        <v>313</v>
+      </c>
+      <c r="E76" t="s">
+        <v>314</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>315</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" t="s">
+        <v>279</v>
+      </c>
+      <c r="H77" t="s">
+        <v>318</v>
+      </c>
+      <c r="I77" t="s">
+        <v>174</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" t="s">
+        <v>287</v>
+      </c>
+      <c r="F78" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78" t="s">
+        <v>319</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" t="s">
+        <v>321</v>
+      </c>
+      <c r="E79" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" t="s">
+        <v>296</v>
+      </c>
+      <c r="H79" t="s">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s">
+        <v>323</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>324</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>325</v>
+      </c>
+      <c r="E80" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>160</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>327</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" t="s">
+        <v>328</v>
+      </c>
+      <c r="E81" t="s">
+        <v>329</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>216</v>
+      </c>
+      <c r="H81" t="s">
+        <v>318</v>
+      </c>
+      <c r="I81" t="s">
+        <v>176</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" t="s">
+        <v>332</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" t="s">
+        <v>333</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>334</v>
+      </c>
+      <c r="J83" t="s">
+        <v>45</v>
+      </c>
+      <c r="K83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" t="s">
+        <v>338</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>341</v>
+      </c>
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s">
+        <v>342</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>343</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
+        <v>346</v>
+      </c>
+      <c r="F86" t="s">
+        <v>175</v>
+      </c>
+      <c r="G86" t="s">
+        <v>60</v>
+      </c>
+      <c r="H86" t="s">
+        <v>318</v>
+      </c>
+      <c r="I86" t="s">
+        <v>147</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>347</v>
+      </c>
+      <c r="H87" t="s">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s">
+        <v>183</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" t="s">
+        <v>132</v>
+      </c>
+      <c r="F88" t="s">
+        <v>90</v>
+      </c>
+      <c r="G88" t="s">
+        <v>93</v>
+      </c>
+      <c r="H88" t="s">
+        <v>126</v>
+      </c>
+      <c r="I88" t="s">
+        <v>227</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>350</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" t="s">
+        <v>352</v>
+      </c>
+      <c r="F90" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>147</v>
+      </c>
+      <c r="J90" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
+        <v>353</v>
+      </c>
+      <c r="G91" t="s">
+        <v>132</v>
+      </c>
+      <c r="H91" t="s">
+        <v>152</v>
+      </c>
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>354</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" t="s">
+        <v>355</v>
+      </c>
+      <c r="E92" t="s">
+        <v>356</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>92</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>357</v>
+      </c>
+      <c r="B93" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" t="s">
+        <v>185</v>
+      </c>
+      <c r="E93" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93" t="s">
+        <v>342</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>343</v>
+      </c>
+      <c r="J93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" t="s">
+        <v>173</v>
+      </c>
+      <c r="F94" t="s">
+        <v>125</v>
+      </c>
+      <c r="G94" t="s">
+        <v>126</v>
+      </c>
+      <c r="H94" t="s">
+        <v>17</v>
+      </c>
+      <c r="I94" t="s">
+        <v>132</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>359</v>
+      </c>
+      <c r="B95" t="s">
+        <v>86</v>
+      </c>
+      <c r="C95" t="s">
+        <v>87</v>
+      </c>
+      <c r="D95" t="s">
+        <v>360</v>
+      </c>
+      <c r="E95" t="s">
+        <v>361</v>
+      </c>
+      <c r="F95" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>362</v>
+      </c>
+      <c r="I95" t="s">
+        <v>363</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>364</v>
+      </c>
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" t="s">
+        <v>365</v>
+      </c>
+      <c r="E96" t="s">
+        <v>366</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>44</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>138</v>
+      </c>
+      <c r="E97" t="s">
+        <v>139</v>
+      </c>
+      <c r="F97" t="s">
+        <v>59</v>
+      </c>
+      <c r="G97" t="s">
+        <v>132</v>
+      </c>
+      <c r="H97" t="s">
+        <v>177</v>
+      </c>
+      <c r="I97" t="s">
+        <v>367</v>
+      </c>
+      <c r="J97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>368</v>
+      </c>
+      <c r="B98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" t="s">
+        <v>369</v>
+      </c>
+      <c r="E98" t="s">
+        <v>370</v>
+      </c>
+      <c r="F98" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>176</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>371</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>372</v>
+      </c>
+      <c r="E100" t="s">
+        <v>373</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>92</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" t="s">
+        <v>273</v>
+      </c>
+      <c r="F101" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" t="s">
+        <v>92</v>
+      </c>
+      <c r="H101" t="s">
+        <v>43</v>
+      </c>
+      <c r="I101" t="s">
+        <v>251</v>
+      </c>
+      <c r="J101" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" t="s">
+        <v>87</v>
+      </c>
+      <c r="D102" t="s">
+        <v>376</v>
+      </c>
+      <c r="E102" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>60</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>378</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D103" t="s">
+        <v>379</v>
+      </c>
+      <c r="E103" t="s">
+        <v>380</v>
+      </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+      <c r="J103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>376</v>
+      </c>
+      <c r="E104" t="s">
+        <v>382</v>
+      </c>
+      <c r="F104" t="s">
+        <v>175</v>
+      </c>
+      <c r="G104" t="s">
+        <v>177</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s">
+        <v>160</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>383</v>
+      </c>
+      <c r="B105" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" t="s">
+        <v>87</v>
+      </c>
+      <c r="D105" t="s">
+        <v>384</v>
+      </c>
+      <c r="E105" t="s">
+        <v>385</v>
+      </c>
+      <c r="F105" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" t="s">
+        <v>386</v>
+      </c>
+      <c r="H105" t="s">
+        <v>152</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>364</v>
+      </c>
+      <c r="B106" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>365</v>
+      </c>
+      <c r="E106" t="s">
+        <v>366</v>
+      </c>
+      <c r="F106" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>177</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>87</v>
+      </c>
+      <c r="D107" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" t="s">
+        <v>103</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s">
+        <v>176</v>
+      </c>
+      <c r="J107" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>224</v>
+      </c>
+      <c r="B108" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D108" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" t="s">
+        <v>225</v>
+      </c>
+      <c r="F108" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" t="s">
+        <v>387</v>
+      </c>
+      <c r="H108" t="s">
+        <v>177</v>
+      </c>
+      <c r="I108" t="s">
+        <v>388</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>389</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" t="s">
+        <v>87</v>
+      </c>
+      <c r="D109" t="s">
+        <v>390</v>
+      </c>
+      <c r="E109" t="s">
+        <v>391</v>
+      </c>
+      <c r="F109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>53</v>
+      </c>
+      <c r="H109" t="s">
+        <v>362</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>284</v>
+      </c>
+      <c r="K109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>392</v>
+      </c>
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" t="s">
+        <v>393</v>
+      </c>
+      <c r="E110" t="s">
+        <v>394</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" t="s">
+        <v>176</v>
+      </c>
+      <c r="I110" t="s">
+        <v>395</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>396</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D111" t="s">
+        <v>397</v>
+      </c>
+      <c r="E111" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>174</v>
+      </c>
+      <c r="H111" t="s">
+        <v>399</v>
+      </c>
+      <c r="I111" t="s">
+        <v>333</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>401</v>
+      </c>
+      <c r="E112" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" t="s">
+        <v>152</v>
+      </c>
+      <c r="H112" t="s">
+        <v>362</v>
+      </c>
+      <c r="I112" t="s">
+        <v>402</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>403</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+      <c r="D113" t="s">
+        <v>404</v>
+      </c>
+      <c r="E113" t="s">
+        <v>405</v>
+      </c>
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" t="s">
+        <v>406</v>
+      </c>
+      <c r="H113" t="s">
+        <v>53</v>
+      </c>
+      <c r="I113" t="s">
+        <v>92</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>407</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>87</v>
+      </c>
+      <c r="D114" t="s">
+        <v>408</v>
+      </c>
+      <c r="E114" t="s">
+        <v>409</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" t="s">
+        <v>410</v>
+      </c>
+      <c r="J114" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>411</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" t="s">
+        <v>412</v>
+      </c>
+      <c r="E115" t="s">
+        <v>413</v>
+      </c>
+      <c r="F115" t="s">
+        <v>90</v>
+      </c>
+      <c r="G115" t="s">
+        <v>414</v>
+      </c>
+      <c r="H115" t="s">
+        <v>66</v>
+      </c>
+      <c r="I115" t="s">
+        <v>415</v>
+      </c>
+      <c r="J115" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" t="s">
+        <v>155</v>
+      </c>
+      <c r="F116" t="s">
+        <v>125</v>
+      </c>
+      <c r="G116" t="s">
+        <v>334</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" t="s">
+        <v>188</v>
+      </c>
+      <c r="J116" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>416</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" t="s">
+        <v>418</v>
+      </c>
+      <c r="E117" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s">
+        <v>118</v>
+      </c>
+      <c r="J117" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>420</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" t="s">
+        <v>421</v>
+      </c>
+      <c r="E118" t="s">
+        <v>422</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" t="s">
+        <v>319</v>
+      </c>
+      <c r="J118" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" t="s">
+        <v>17</v>
+      </c>
+      <c r="I119" t="s">
+        <v>410</v>
+      </c>
+      <c r="J119" t="s">
+        <v>19</v>
+      </c>
+      <c r="K119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>423</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D120" t="s">
+        <v>424</v>
+      </c>
+      <c r="E120" t="s">
+        <v>425</v>
+      </c>
+      <c r="F120" t="s">
+        <v>175</v>
+      </c>
+      <c r="G120" t="s">
+        <v>426</v>
+      </c>
+      <c r="H120" t="s">
+        <v>427</v>
+      </c>
+      <c r="I120" t="s">
+        <v>69</v>
+      </c>
+      <c r="J120" t="s">
+        <v>19</v>
+      </c>
+      <c r="K120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>428</v>
+      </c>
+      <c r="B121" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121" t="s">
+        <v>429</v>
+      </c>
+      <c r="E121" t="s">
+        <v>430</v>
+      </c>
+      <c r="F121" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" t="s">
+        <v>44</v>
+      </c>
+      <c r="J121" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" t="s">
+        <v>49</v>
+      </c>
+      <c r="D122" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" t="s">
+        <v>223</v>
+      </c>
+      <c r="F122" t="s">
+        <v>59</v>
+      </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" t="s">
+        <v>176</v>
+      </c>
+      <c r="I122" t="s">
+        <v>198</v>
+      </c>
+      <c r="J122" t="s">
+        <v>19</v>
+      </c>
+      <c r="K122" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>428</v>
+      </c>
+      <c r="B123" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" t="s">
+        <v>429</v>
+      </c>
+      <c r="E123" t="s">
+        <v>430</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>431</v>
+      </c>
+      <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D124" t="s">
+        <v>432</v>
+      </c>
+      <c r="E124" t="s">
+        <v>433</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s">
+        <v>17</v>
+      </c>
+      <c r="I124" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" t="s">
+        <v>45</v>
+      </c>
+      <c r="K124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>434</v>
+      </c>
+      <c r="B125" t="s">
+        <v>190</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>435</v>
+      </c>
+      <c r="E125" t="s">
+        <v>235</v>
+      </c>
+      <c r="F125" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" t="s">
+        <v>52</v>
+      </c>
+      <c r="H125" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>436</v>
+      </c>
+      <c r="B126" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" t="s">
+        <v>49</v>
+      </c>
+      <c r="D126" t="s">
+        <v>437</v>
+      </c>
+      <c r="E126" t="s">
+        <v>438</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s">
+        <v>17</v>
+      </c>
+      <c r="I126" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
+      </c>
+      <c r="K126" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>420</v>
+      </c>
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" t="s">
+        <v>421</v>
+      </c>
+      <c r="E127" t="s">
+        <v>422</v>
+      </c>
+      <c r="F127" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" t="s">
+        <v>231</v>
+      </c>
+      <c r="I127" t="s">
+        <v>118</v>
+      </c>
+      <c r="J127" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>411</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" t="s">
+        <v>412</v>
+      </c>
+      <c r="E128" t="s">
+        <v>413</v>
+      </c>
+      <c r="F128" t="s">
+        <v>59</v>
+      </c>
+      <c r="G128" t="s">
+        <v>347</v>
+      </c>
+      <c r="H128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" t="s">
+        <v>301</v>
+      </c>
+      <c r="J128" t="s">
+        <v>19</v>
+      </c>
+      <c r="K128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>240</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" t="s">
+        <v>242</v>
+      </c>
+      <c r="E129" t="s">
+        <v>243</v>
+      </c>
+      <c r="F129" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" t="s">
+        <v>17</v>
+      </c>
+      <c r="I129" t="s">
+        <v>260</v>
+      </c>
+      <c r="J129" t="s">
+        <v>19</v>
+      </c>
+      <c r="K129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
+      </c>
+      <c r="D130" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" t="s">
+        <v>164</v>
+      </c>
+      <c r="F130" t="s">
+        <v>353</v>
+      </c>
+      <c r="G130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H130" t="s">
+        <v>17</v>
+      </c>
+      <c r="I130" t="s">
+        <v>43</v>
+      </c>
+      <c r="J130" t="s">
+        <v>19</v>
+      </c>
+      <c r="K130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>375</v>
+      </c>
+      <c r="B131" t="s">
+        <v>340</v>
+      </c>
+      <c r="C131" t="s">
+        <v>87</v>
+      </c>
+      <c r="D131" t="s">
+        <v>376</v>
+      </c>
+      <c r="E131" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" t="s">
+        <v>132</v>
+      </c>
+      <c r="H131" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>439</v>
+      </c>
+      <c r="B132" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" t="s">
+        <v>87</v>
+      </c>
+      <c r="D132" t="s">
+        <v>440</v>
+      </c>
+      <c r="E132" t="s">
+        <v>342</v>
+      </c>
+      <c r="F132" t="s">
+        <v>59</v>
+      </c>
+      <c r="G132" t="s">
+        <v>283</v>
+      </c>
+      <c r="H132" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" t="s">
+        <v>347</v>
+      </c>
+      <c r="J132" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E133" t="s">
+        <v>51</v>
+      </c>
+      <c r="F133" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" t="s">
+        <v>181</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133" t="s">
+        <v>301</v>
+      </c>
+      <c r="J133" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>441</v>
+      </c>
+      <c r="B134" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" t="s">
+        <v>417</v>
+      </c>
+      <c r="D134" t="s">
+        <v>442</v>
+      </c>
+      <c r="E134" t="s">
+        <v>443</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+      <c r="J134" t="s">
+        <v>19</v>
+      </c>
+      <c r="K134" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>444</v>
+      </c>
+      <c r="B135" t="s">
+        <v>22</v>
+      </c>
+      <c r="C135" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" t="s">
+        <v>445</v>
+      </c>
+      <c r="E135" t="s">
+        <v>446</v>
+      </c>
+      <c r="F135" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>447</v>
+      </c>
+      <c r="I135" t="s">
+        <v>448</v>
+      </c>
+      <c r="J135" t="s">
+        <v>19</v>
+      </c>
+      <c r="K135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>449</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136" t="s">
+        <v>87</v>
+      </c>
+      <c r="D136" t="s">
+        <v>399</v>
+      </c>
+      <c r="E136" t="s">
+        <v>450</v>
+      </c>
+      <c r="F136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" t="s">
+        <v>451</v>
+      </c>
+      <c r="H136" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>406</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>452</v>
+      </c>
+      <c r="B137" t="s">
+        <v>86</v>
+      </c>
+      <c r="C137" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" t="s">
+        <v>453</v>
+      </c>
+      <c r="E137" t="s">
+        <v>454</v>
+      </c>
+      <c r="F137" t="s">
+        <v>59</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>160</v>
+      </c>
+      <c r="I137" t="s">
+        <v>363</v>
+      </c>
+      <c r="J137" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>455</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" t="s">
+        <v>456</v>
+      </c>
+      <c r="E138" t="s">
+        <v>457</v>
+      </c>
+      <c r="F138" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" t="s">
+        <v>126</v>
+      </c>
+      <c r="J138" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K138" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>21</v>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>455</v>
+      </c>
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" t="s">
+        <v>456</v>
+      </c>
+      <c r="E139" t="s">
+        <v>457</v>
+      </c>
+      <c r="F139" t="s">
+        <v>90</v>
+      </c>
+      <c r="G139" t="s">
+        <v>458</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139" t="s">
+        <v>355</v>
+      </c>
+      <c r="J139" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>459</v>
+      </c>
+      <c r="B140" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" t="s">
+        <v>87</v>
+      </c>
+      <c r="D140" t="s">
+        <v>460</v>
+      </c>
+      <c r="E140" t="s">
+        <v>461</v>
+      </c>
+      <c r="F140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s">
+        <v>36</v>
+      </c>
+      <c r="J140" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>462</v>
+      </c>
+      <c r="B141" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" t="s">
+        <v>351</v>
+      </c>
+      <c r="E141" t="s">
+        <v>463</v>
+      </c>
+      <c r="F141" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" t="s">
+        <v>296</v>
+      </c>
+      <c r="H141" t="s">
+        <v>177</v>
+      </c>
+      <c r="I141" t="s">
+        <v>347</v>
+      </c>
+      <c r="J141" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
+        <v>175</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142" t="s">
+        <v>36</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>156</v>
+      </c>
+      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" t="s">
+        <v>159</v>
+      </c>
+      <c r="F143" t="s">
+        <v>125</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" t="s">
+        <v>132</v>
+      </c>
+      <c r="J143" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>464</v>
+      </c>
+      <c r="B144" t="s">
+        <v>142</v>
+      </c>
+      <c r="C144" t="s">
+        <v>31</v>
+      </c>
+      <c r="D144" t="s">
+        <v>465</v>
+      </c>
+      <c r="E144" t="s">
+        <v>466</v>
+      </c>
+      <c r="F144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" t="s">
+        <v>92</v>
+      </c>
+      <c r="J144" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" t="s">
+        <v>467</v>
+      </c>
+      <c r="B145" t="s">
+        <v>142</v>
+      </c>
+      <c r="C145" t="s">
+        <v>87</v>
+      </c>
+      <c r="D145" t="s">
+        <v>468</v>
+      </c>
+      <c r="E145" t="s">
+        <v>469</v>
+      </c>
+      <c r="F145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>181</v>
+      </c>
+      <c r="H145" t="s">
+        <v>456</v>
+      </c>
+      <c r="I145" t="s">
+        <v>470</v>
+      </c>
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" t="s">
+        <v>65</v>
+      </c>
+      <c r="F146" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>471</v>
+      </c>
+      <c r="H146" t="s">
+        <v>333</v>
+      </c>
+      <c r="I146" t="s">
+        <v>36</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>128</v>
+      </c>
+      <c r="C147" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
+        <v>264</v>
+      </c>
+      <c r="F147" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+      <c r="J147" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C148" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" t="s">
+        <v>276</v>
+      </c>
+      <c r="E148" t="s">
+        <v>277</v>
+      </c>
+      <c r="F148" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>367</v>
+      </c>
+      <c r="H148" t="s">
+        <v>333</v>
+      </c>
+      <c r="I148" t="s">
+        <v>318</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" t="s">
+        <v>472</v>
+      </c>
+      <c r="B149" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" t="s">
+        <v>474</v>
+      </c>
+      <c r="D149" t="s">
+        <v>185</v>
+      </c>
+      <c r="E149" t="s">
+        <v>475</v>
+      </c>
+      <c r="F149" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" t="s">
+        <v>476</v>
+      </c>
+      <c r="H149" t="s">
+        <v>477</v>
+      </c>
+      <c r="I149" t="s">
+        <v>36</v>
+      </c>
+      <c r="J149" t="s">
+        <v>284</v>
+      </c>
+      <c r="K149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" t="s">
+        <v>371</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" t="s">
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
+        <v>372</v>
+      </c>
+      <c r="E150" t="s">
+        <v>373</v>
+      </c>
+      <c r="F150" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s">
+        <v>17</v>
+      </c>
+      <c r="I150" t="s">
+        <v>177</v>
+      </c>
+      <c r="J150" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" t="s">
+        <v>127</v>
+      </c>
+      <c r="B151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" t="s">
+        <v>87</v>
+      </c>
+      <c r="D151" t="s">
+        <v>129</v>
+      </c>
+      <c r="E151" t="s">
+        <v>130</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" t="s">
+        <v>318</v>
+      </c>
+      <c r="J151" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" t="s">
+        <v>416</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>417</v>
+      </c>
+      <c r="D152" t="s">
+        <v>418</v>
+      </c>
+      <c r="E152" t="s">
+        <v>419</v>
+      </c>
+      <c r="F152" t="s">
+        <v>353</v>
+      </c>
+      <c r="G152" t="s">
+        <v>132</v>
+      </c>
+      <c r="H152" t="s">
+        <v>17</v>
+      </c>
+      <c r="I152" t="s">
+        <v>132</v>
+      </c>
+      <c r="J152" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" t="s">
+        <v>478</v>
+      </c>
+      <c r="B153" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153" t="s">
+        <v>87</v>
+      </c>
+      <c r="D153" t="s">
+        <v>479</v>
+      </c>
+      <c r="E153" t="s">
+        <v>480</v>
+      </c>
+      <c r="F153" t="s">
+        <v>59</v>
+      </c>
+      <c r="G153" t="s">
+        <v>283</v>
+      </c>
+      <c r="H153" t="s">
+        <v>160</v>
+      </c>
+      <c r="I153" t="s">
+        <v>161</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" t="s">
+        <v>247</v>
+      </c>
+      <c r="B154" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154" t="s">
+        <v>248</v>
+      </c>
+      <c r="E154" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" t="s">
+        <v>59</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154" t="s">
+        <v>35</v>
+      </c>
+      <c r="J154" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" t="s">
+        <v>478</v>
+      </c>
+      <c r="B155" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" t="s">
+        <v>87</v>
+      </c>
+      <c r="D155" t="s">
+        <v>479</v>
+      </c>
+      <c r="E155" t="s">
+        <v>480</v>
+      </c>
+      <c r="F155" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" t="s">
+        <v>274</v>
+      </c>
+      <c r="H155" t="s">
+        <v>43</v>
+      </c>
+      <c r="I155" t="s">
+        <v>18</v>
+      </c>
+      <c r="J155" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" t="s">
+        <v>481</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" t="s">
+        <v>482</v>
+      </c>
+      <c r="E156" t="s">
+        <v>483</v>
+      </c>
+      <c r="F156" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="I156" t="s">
+        <v>460</v>
+      </c>
+      <c r="J156" t="s">
+        <v>19</v>
+      </c>
+      <c r="K156" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" t="s">
+        <v>85</v>
+      </c>
+      <c r="B157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" t="s">
+        <v>87</v>
+      </c>
+      <c r="D157" t="s">
+        <v>88</v>
+      </c>
+      <c r="E157" t="s">
+        <v>89</v>
+      </c>
+      <c r="F157" t="s">
+        <v>59</v>
+      </c>
+      <c r="G157" t="s">
+        <v>205</v>
+      </c>
+      <c r="H157" t="s">
+        <v>160</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" t="s">
+        <v>19</v>
+      </c>
+      <c r="K157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" t="s">
+        <v>265</v>
+      </c>
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158" t="s">
+        <v>60</v>
+      </c>
+      <c r="E158" t="s">
+        <v>266</v>
+      </c>
+      <c r="F158" t="s">
+        <v>125</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>152</v>
+      </c>
+      <c r="I158" t="s">
+        <v>132</v>
+      </c>
+      <c r="J158" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" t="s">
+        <v>484</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>87</v>
+      </c>
+      <c r="D159" t="s">
+        <v>485</v>
+      </c>
+      <c r="E159" t="s">
+        <v>486</v>
+      </c>
+      <c r="F159" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="I159" t="s">
+        <v>176</v>
+      </c>
+      <c r="J159" t="s">
+        <v>19</v>
+      </c>
+      <c r="K159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>115</v>
+      </c>
+      <c r="D160" t="s">
+        <v>158</v>
+      </c>
+      <c r="E160" t="s">
+        <v>159</v>
+      </c>
+      <c r="F160" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="I160" t="s">
+        <v>126</v>
+      </c>
+      <c r="J160" t="s">
+        <v>19</v>
+      </c>
+      <c r="K160" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" t="s">
+        <v>228</v>
+      </c>
+      <c r="B161" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" t="s">
+        <v>87</v>
+      </c>
+      <c r="D161" t="s">
+        <v>229</v>
+      </c>
+      <c r="E161" t="s">
+        <v>215</v>
+      </c>
+      <c r="F161" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" t="s">
+        <v>347</v>
+      </c>
+      <c r="H161" t="s">
+        <v>182</v>
+      </c>
+      <c r="I161" t="s">
+        <v>426</v>
+      </c>
+      <c r="J161" t="s">
+        <v>45</v>
+      </c>
+      <c r="K161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" t="s">
+        <v>94</v>
+      </c>
+      <c r="B162" t="s">
+        <v>95</v>
+      </c>
+      <c r="C162" t="s">
+        <v>87</v>
+      </c>
+      <c r="D162" t="s">
+        <v>96</v>
+      </c>
+      <c r="E162" t="s">
+        <v>97</v>
+      </c>
+      <c r="F162" t="s">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="I162" t="s">
+        <v>27</v>
+      </c>
+      <c r="J162" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" t="s">
+        <v>270</v>
+      </c>
+      <c r="B163" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>271</v>
+      </c>
+      <c r="E163" t="s">
+        <v>272</v>
+      </c>
+      <c r="F163" t="s">
+        <v>41</v>
+      </c>
+      <c r="G163" t="s">
+        <v>487</v>
+      </c>
+      <c r="H163" t="s">
+        <v>471</v>
+      </c>
+      <c r="I163" t="s">
+        <v>54</v>
+      </c>
+      <c r="J163" t="s">
+        <v>19</v>
+      </c>
+      <c r="K163" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
